--- a/biology/Zoologie/Anurida/Anurida.xlsx
+++ b/biology/Zoologie/Anurida/Anurida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anurida est un genre de collemboles de la famille des Neanuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Checklist of the Collembola of the World (version du 25 octobre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Checklist of the Collembola of the World (version du 25 octobre 2019) :
 Anurida abashiriensis Babenko &amp; Nakamori, 2018
 Anurida alpina Agrell, 1939
 Anurida amorita Folsom, 1902
@@ -621,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Laboulbène, 1865 : Description et anatomie d'un insecte maritime (Anurida maritima) qui forme un genre nouveau dans l'ordre des Thysanoures et la famille des Podurides. Comptes Rendus des Seances et Memoires de la Societe de Biologie, vol. 4, p. 189-206 (texte intégral).</t>
         </is>
